--- a/Data/Input/Templates_TB/Tableau de bord par DPE.xlsx
+++ b/Data/Input/Templates_TB/Tableau de bord par DPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/abdelhak_saket_capgemini_com/Documents/Desktop/Robot_IndusSurRemuneration/Data/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/abdelhak_saket_capgemini_com/Documents/Desktop/Robot_IndusSurRemuneration/Data/Input/Templates_TB/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_3164F84CA30C5E5C0CD3C9076E8A34A1721D71B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{617C3A45-A587-41B2-8AA3-2A1FC7FF2B88}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2630" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableau de bord actuel" sheetId="1" r:id="rId1"/>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1821,12 +1821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1835,7 +1829,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100752C888B35AC7B4094CB30ADD37301CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="6d145eb7e0c3efe3915ec24cec50a7cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e04c5a2-0e21-42f0-b5b9-4c0d82b60ef4" xmlns:ns3="8c41a1f1-1963-436e-a2f9-00d063598dfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="945f27a37c53dfc5dd6ac6e8c5ab79d5" ns2:_="" ns3:_="">
     <xsd:import namespace="7e04c5a2-0e21-42f0-b5b9-4c0d82b60ef4"/>
@@ -2038,16 +2032,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774EA9B4-1C15-40E1-9B87-E65CB65BD316}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D64DA7E-F3CF-4061-AE55-B2AE8581D211}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2055,7 +2046,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37AA7F93-A324-431B-ABF0-6955521F1748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2072,4 +2063,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{774EA9B4-1C15-40E1-9B87-E65CB65BD316}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>